--- a/MiniProject_JioMart/TestData/JioMart-InputData.xlsx
+++ b/MiniProject_JioMart/TestData/JioMart-InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\197160\source\repos\UST_SDET_SELENIUM\JioMart\MiniProject_JioMart\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB5573B-5DD5-48F8-8119-01020D35BFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F189D1-E99B-4E0A-BE15-995E110EE337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,22 +25,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>product</t>
   </si>
   <si>
     <t>one plus mobile</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>mobilenumber</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>john@abc.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,14 +95,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -349,30 +384,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.26953125" customWidth="1"/>
     <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>673595</v>
+      </c>
+      <c r="C2">
+        <v>2131414672</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{A114CB6B-C442-4B1B-989A-071291AE3906}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/MiniProject_JioMart/TestData/JioMart-InputData.xlsx
+++ b/MiniProject_JioMart/TestData/JioMart-InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\197160\source\repos\UST_SDET_SELENIUM\JioMart\MiniProject_JioMart\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F189D1-E99B-4E0A-BE15-995E110EE337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE65060-C751-4549-B0DF-62515825347E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>product</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>john@abc.com</t>
+  </si>
+  <si>
+    <t>multipleproduct</t>
+  </si>
+  <si>
+    <t>Milk,Bread,Fruits</t>
   </si>
 </sst>
 </file>
@@ -384,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -395,9 +401,11 @@
     <col min="1" max="1" width="17.26953125" customWidth="1"/>
     <col min="2" max="2" width="13.6328125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,8 +424,11 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -435,6 +446,9 @@
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/MiniProject_JioMart/TestData/JioMart-InputData.xlsx
+++ b/MiniProject_JioMart/TestData/JioMart-InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\197160\source\repos\UST_SDET_SELENIUM\JioMart\MiniProject_JioMart\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE65060-C751-4549-B0DF-62515825347E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522DFF24-C111-472B-AFFF-62B051622292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
